--- a/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.097410532628063</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.552324889773278</v>
+        <v>5.552324889773279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3472511542635937</v>
@@ -649,7 +649,7 @@
         <v>2.470703721638028</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.8545515402028467</v>
+        <v>0.854551540202847</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7668032637998835</v>
+        <v>-0.7135579063267283</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.25067131996933</v>
+        <v>1.113552892657519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.638449267663234</v>
+        <v>3.766434429203276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.016363890017127</v>
+        <v>2.832108237245692</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4682309863582368</v>
+        <v>-0.458107336964468</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5014688222636788</v>
+        <v>0.3430287101096272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9828786507575497</v>
+        <v>1.018662542171918</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3738995963188478</v>
+        <v>0.329081964710173</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.64629462359516</v>
+        <v>1.641074527117325</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.185232220836262</v>
+        <v>4.967730627567216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.677030194005713</v>
+        <v>8.948400619147327</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.048057217978458</v>
+        <v>8.217325172898009</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.311299266857175</v>
+        <v>2.31841162791484</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.317318175991492</v>
+        <v>4.462097162891878</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.152117171662093</v>
+        <v>5.317554831059313</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.591922147341883</v>
+        <v>1.552534050093092</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3126997450291747</v>
+        <v>0.1845851555144044</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.969692589913936</v>
+        <v>4.833544753169801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.586817846976523</v>
+        <v>1.548253117674103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.698959330689</v>
+        <v>3.708584905472982</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09731166786729688</v>
+        <v>0.05409365255257094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.964230965551788</v>
+        <v>2.914467996239566</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4262818196519519</v>
+        <v>0.4113387341910517</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7799717333675869</v>
+        <v>0.7686880922072644</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.164461039687251</v>
+        <v>3.070303481014383</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.655777044199526</v>
+        <v>8.520101665203361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.080846223449162</v>
+        <v>5.072766673860637</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.318979294163698</v>
+        <v>7.384577904206617</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.761805164366795</v>
+        <v>3.040881279360709</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>14.20438099684156</v>
+        <v>13.62918274453374</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.803257821674574</v>
+        <v>2.849228867876758</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.505613587619163</v>
+        <v>2.447257023552405</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.606030379635078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.038836778157084</v>
+        <v>4.038836778157088</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.972981665671232</v>
@@ -849,7 +849,7 @@
         <v>1.909093225676953</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8199699004893912</v>
+        <v>0.819969900489392</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.509148227510808</v>
+        <v>1.616109306503037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5141380000317849</v>
+        <v>0.6610809337706889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.42456305406037</v>
+        <v>2.312341763896107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.833864657735954</v>
+        <v>1.640965164732857</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5542469989948392</v>
+        <v>0.4826165081961692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04159866785696851</v>
+        <v>0.1399370452709469</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.669457879032227</v>
+        <v>0.7046134648014588</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2708203515595549</v>
+        <v>0.2521960263878696</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.407627304457149</v>
+        <v>5.442135935627025</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.185945362181645</v>
+        <v>5.163013600531839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.921737215977402</v>
+        <v>6.763094180195035</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.221733250600445</v>
+        <v>6.256593702057624</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.932567779084184</v>
+        <v>4.462923160315074</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.39017865068798</v>
+        <v>3.411813401747714</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.402337549954444</v>
+        <v>4.350115872793085</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.608660356170166</v>
+        <v>1.630599263659668</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9206192635478285</v>
+        <v>1.105884909450567</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.526957981642512</v>
+        <v>1.465199792437784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.675702924453845</v>
+        <v>3.536164411993186</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.369956924917747</v>
+        <v>3.260420355308608</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2205104676909848</v>
+        <v>0.266058471432419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3529516746992649</v>
+        <v>0.3535319609134135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8679839520791498</v>
+        <v>0.8353048849556025</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4857891537559501</v>
+        <v>0.4342513922759368</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.522969250391651</v>
+        <v>4.744286652028971</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.546435137292606</v>
+        <v>5.445391144682935</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.155464807392887</v>
+        <v>8.217596249990383</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.47859773116529</v>
+        <v>7.673593345165656</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.933700865215667</v>
+        <v>2.12942470635158</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.575908923977211</v>
+        <v>2.663433241423446</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.34031031187487</v>
+        <v>3.375509838540611</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.549188382120793</v>
+        <v>1.572736077250383</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.865897714079663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.231539115044202</v>
+        <v>5.231539115044201</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.100259253815746</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.372225981795742</v>
+        <v>1.328059413427098</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.195368646989348</v>
+        <v>3.216821301526814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.777398817325126</v>
+        <v>3.818709489647818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.096413935768043</v>
+        <v>4.238802635188449</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5917233292910801</v>
+        <v>0.5445038191021148</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.30193433676739</v>
+        <v>1.254740954752968</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.214283112900733</v>
+        <v>1.239459432285941</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7060593132247417</v>
+        <v>0.7445247970208483</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.099014231239869</v>
+        <v>3.056760257974098</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.246575703487482</v>
+        <v>5.224330235840373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.983964798396308</v>
+        <v>5.995290855970044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.225743510434792</v>
+        <v>6.334317150219245</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.885557693571135</v>
+        <v>1.809316666159515</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.162305187129038</v>
+        <v>3.019085753690603</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.611114315033848</v>
+        <v>2.670266206405213</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.351265194411077</v>
+        <v>1.360532254625368</v>
       </c>
     </row>
     <row r="19">
